--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica (2).xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Monterrey\Pruebas\SIEDLN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="171">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -445,9 +445,6 @@
     <t xml:space="preserve">Cerrar Sesión </t>
   </si>
   <si>
-    <t xml:space="preserve">Meta Anual </t>
-  </si>
-  <si>
     <t xml:space="preserve">Filtro Por Estado de la Meta Anual </t>
   </si>
   <si>
@@ -532,18 +529,6 @@
     <t xml:space="preserve">Inicio / Configuraciones </t>
   </si>
   <si>
-    <t>No exisste menu de configuración</t>
-  </si>
-  <si>
-    <t>Cierrra sesión</t>
-  </si>
-  <si>
-    <t>Icono deshabillitado</t>
-  </si>
-  <si>
-    <t>No  genera la busqueda corrrectamente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir visualizar, añadir y cancelar cometarios </t>
   </si>
   <si>
@@ -553,18 +538,12 @@
     <t>Permite registrar ficha técnica</t>
   </si>
   <si>
-    <t>No genera la busqueda correctamente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela la Ficha Técnica </t>
   </si>
   <si>
     <t>Realiizado</t>
   </si>
   <si>
-    <t>Esta inhabiliitado</t>
-  </si>
-  <si>
     <t>Se pueden leer los comentarios enviados, añadir uno nuevo  y cancelar correctamente</t>
   </si>
   <si>
@@ -577,9 +556,6 @@
     <t>Cancela el registro</t>
   </si>
   <si>
-    <t>Manda mensaje de error en seccion de encabezado por estaar incompleto</t>
-  </si>
-  <si>
     <t>Guarda borrador correctamente</t>
   </si>
   <si>
@@ -598,12 +574,6 @@
     <t>Confirmación correcta enviada a autorización</t>
   </si>
   <si>
-    <t>Filtro inhabilitado</t>
-  </si>
-  <si>
-    <t>No genera Filtro busqueda correctamente</t>
-  </si>
-  <si>
     <t>Permite leer, añadir nuevo comentario y cancelar correctamente</t>
   </si>
   <si>
@@ -635,6 +605,27 @@
   </si>
   <si>
     <t>https://siednl.atlassian.net/browse/PBR-46</t>
+  </si>
+  <si>
+    <t>Ingesa a la plataforma</t>
+  </si>
+  <si>
+    <t>Se  muestran las 3 opciones (MIR, Meta anual y Ficha técnica)</t>
+  </si>
+  <si>
+    <t>No existe menu de configuración</t>
+  </si>
+  <si>
+    <t>Cierra sesión</t>
+  </si>
+  <si>
+    <t>Busqueda de Ficha técnica</t>
+  </si>
+  <si>
+    <t>Busqueda de MIR</t>
+  </si>
+  <si>
+    <t>Envio de solicitud de modificación correcta</t>
   </si>
 </sst>
 </file>
@@ -950,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1009,6 +1000,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,7 +1205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1267,7 +1259,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1331,7 +1323,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1402,7 +1394,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1473,7 +1465,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1544,7 +1536,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1717,7 +1709,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1773,7 +1765,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1829,7 +1821,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1875,7 +1867,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1995,7 +1987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2032,7 +2024,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2122,7 +2114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2307,7 +2299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2377,7 +2369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2419,7 +2411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2449,7 +2441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2539,7 +2531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3186,7 +3178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3256,7 +3248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3298,7 +3290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3328,7 +3320,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9875,6 +9867,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -9996,7 +10057,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10163,75 +10224,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10514,9 +10506,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10538,94 +10530,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10691,7 +10683,10 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>49</v>
@@ -10781,7 +10776,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -10810,7 +10805,7 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -10818,7 +10813,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10838,7 +10833,10 @@
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -10859,13 +10857,13 @@
         <v>70</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>105</v>
@@ -10922,7 +10920,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>109</v>
@@ -10937,7 +10935,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
@@ -10949,19 +10947,19 @@
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N16" s="1">
         <v>45097</v>
@@ -10975,7 +10973,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
@@ -10987,19 +10985,19 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N17" s="1">
         <v>45097</v>
@@ -11013,7 +11011,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -11022,22 +11020,22 @@
         <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N18" s="1">
         <v>45097</v>
@@ -11051,7 +11049,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -11060,16 +11058,16 @@
         <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -11078,10 +11076,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
@@ -11090,26 +11088,26 @@
         <v>70</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -11124,10 +11122,10 @@
         <v>31</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -11136,7 +11134,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>58</v>
@@ -11154,10 +11152,10 @@
         <v>31</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -11166,7 +11164,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>59</v>
@@ -11184,10 +11182,10 @@
         <v>31</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -11196,7 +11194,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
@@ -11214,10 +11212,10 @@
         <v>31</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -11226,7 +11224,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>61</v>
@@ -11244,10 +11242,10 @@
         <v>31</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -11256,7 +11254,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>62</v>
@@ -11274,10 +11272,10 @@
         <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -11286,7 +11284,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>62</v>
@@ -11304,10 +11302,10 @@
         <v>31</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -11316,7 +11314,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>62</v>
@@ -11334,10 +11332,10 @@
         <v>31</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N28" s="1"/>
     </row>
@@ -11346,7 +11344,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>62</v>
@@ -11364,10 +11362,10 @@
         <v>31</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N29" s="1"/>
     </row>
@@ -11376,7 +11374,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>62</v>
@@ -11391,7 +11389,7 @@
         <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>89</v>
@@ -11407,7 +11405,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>62</v>
@@ -11438,7 +11436,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>62</v>
@@ -11468,7 +11466,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>62</v>
@@ -11489,7 +11487,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -11498,10 +11496,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
         <v>75</v>
@@ -11513,19 +11511,19 @@
         <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N34" s="1">
         <v>45097</v>
@@ -11536,10 +11534,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -11548,22 +11546,22 @@
         <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M35" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N35" s="1">
         <v>45097</v>
@@ -11574,10 +11572,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -11589,19 +11587,19 @@
         <v>78</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M36" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N36" s="1">
         <v>45097</v>
@@ -11612,10 +11610,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
         <v>75</v>
@@ -11624,13 +11622,13 @@
         <v>76</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>96</v>
@@ -11642,10 +11640,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
@@ -11654,22 +11652,25 @@
         <v>76</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>75</v>
@@ -11678,7 +11679,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N39" s="1"/>
     </row>
@@ -11687,7 +11688,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -11705,10 +11706,10 @@
         <v>31</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -11717,7 +11718,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -11735,10 +11736,10 @@
         <v>31</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N41" s="1"/>
     </row>
@@ -11747,7 +11748,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -11765,10 +11766,10 @@
         <v>31</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -11777,7 +11778,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
@@ -11795,10 +11796,10 @@
         <v>31</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N43" s="1"/>
     </row>
@@ -11807,7 +11808,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
@@ -11825,10 +11826,10 @@
         <v>31</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -11837,7 +11838,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>62</v>
@@ -11855,7 +11856,7 @@
         <v>31</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>97</v>
@@ -11867,7 +11868,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -11882,19 +11883,19 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M46" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N46" s="1">
         <v>45097</v>
@@ -11905,7 +11906,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -11923,7 +11924,7 @@
         <v>31</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>98</v>
@@ -11935,7 +11936,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -11953,7 +11954,7 @@
         <v>31</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>82</v>
@@ -11965,7 +11966,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -11983,7 +11984,7 @@
         <v>31</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>71</v>
@@ -11994,7 +11995,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
@@ -12012,7 +12013,7 @@
         <v>31</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>90</v>
@@ -12023,7 +12024,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
@@ -12041,7 +12042,7 @@
         <v>31</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>94</v>
@@ -12053,7 +12054,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
@@ -12071,10 +12072,10 @@
         <v>31</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N52" s="1"/>
     </row>
@@ -12083,10 +12084,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
         <v>83</v>
@@ -12098,19 +12099,19 @@
         <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M53" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N53" s="1">
         <v>45097</v>
@@ -12121,10 +12122,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>83</v>
@@ -12133,22 +12134,22 @@
         <v>84</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M54" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N54" s="1">
         <v>45097</v>
@@ -12159,10 +12160,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
         <v>83</v>
@@ -12174,19 +12175,19 @@
         <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M55" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N55" s="1">
         <v>45097</v>
@@ -12197,10 +12198,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
         <v>83</v>
@@ -12209,16 +12210,16 @@
         <v>84</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
         <v>31</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N56" s="1"/>
     </row>
@@ -12227,10 +12228,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
         <v>83</v>
@@ -12245,7 +12246,7 @@
         <v>31</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>96</v>
@@ -12257,10 +12258,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>83</v>
@@ -12269,16 +12270,16 @@
         <v>84</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N58" s="1"/>
     </row>
@@ -12287,10 +12288,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>83</v>
@@ -12305,7 +12306,7 @@
         <v>31</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>99</v>
@@ -12317,7 +12318,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
@@ -12335,7 +12336,7 @@
         <v>31</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>88</v>
@@ -12347,7 +12348,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -12365,7 +12366,7 @@
         <v>31</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>88</v>
@@ -12377,7 +12378,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
@@ -12395,7 +12396,7 @@
         <v>31</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>88</v>
@@ -12407,7 +12408,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
@@ -12425,7 +12426,7 @@
         <v>31</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>88</v>
@@ -12437,7 +12438,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
@@ -12455,7 +12456,7 @@
         <v>31</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>95</v>
@@ -12467,7 +12468,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
@@ -12485,7 +12486,7 @@
         <v>31</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>101</v>
@@ -12497,7 +12498,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>62</v>
@@ -12515,7 +12516,7 @@
         <v>31</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>100</v>
@@ -12523,11 +12524,14 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N67" s="1"/>
     </row>
@@ -12536,7 +12540,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
         <v>62</v>
@@ -12554,7 +12558,7 @@
         <v>31</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>86</v>
@@ -12566,7 +12570,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
@@ -12584,7 +12588,7 @@
         <v>31</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>71</v>
@@ -12596,7 +12600,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
@@ -12614,7 +12618,7 @@
         <v>31</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>90</v>
@@ -12626,7 +12630,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
@@ -12644,7 +12648,7 @@
         <v>31</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>94</v>
@@ -12656,7 +12660,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
@@ -12674,10 +12678,10 @@
         <v>31</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N72" s="1"/>
     </row>
@@ -13560,7 +13564,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
